--- a/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T04:56:18+00:00</t>
+    <t>2022-08-20T02:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,16 +259,14 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports 診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP-Core仕様】画像結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
-患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP-Core仕様】画像結果レポートのプロフィール</t>
+  </si>
+  <si>
+    <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
 【JP-Core仕様】画像結果レポートのプロフィール</t>
   </si>
   <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
-これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
 【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
@@ -388,13 +386,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
+  </si>
+  <si>
+    <t>放射線レポートの場合、主となる所見を表すエレメントは他のリソースエレメントには存在しない。よってこのドメインリソースを用いてレポートの少なくとも「所見」を人間が可読な状態で保持することが求められる。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -483,7 +481,7 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for report レポートを識別するビジネス識別子</t>
+    <t>レポートを識別するビジネス識別子</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
@@ -520,7 +518,7 @@
 </t>
   </si>
   <si>
-    <t>What was requested　元になった検査や診断の依頼</t>
+    <t>検査や診断の依頼の元になったもの。通常はServiceRequestあるいはCarePlan（治験や抗がん剤投与等により検査を行うことが必須の場合、根拠となった事象を追記することは制限しない）</t>
   </si>
   <si>
     <t>レポート作成サービスに対する要求の詳細</t>
@@ -591,7 +589,7 @@
 </t>
   </si>
   <si>
-    <t>Service category　サービスカテゴリー</t>
+    <t>サービスカテゴリー</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。</t>
@@ -634,7 +632,7 @@
 </t>
   </si>
   <si>
-    <t>Name/Code for this diagnostic report　この診断レポートの名前/コード</t>
+    <t>この診断レポートの名前/コード</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
@@ -682,7 +680,7 @@
 </t>
   </si>
   <si>
-    <t>The subject of the report - usually, but not always, the patient 　レポートの対象、常にではないが、通常は患者</t>
+    <t>レポートの対象、常にではないが、通常は患者</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
@@ -718,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t>Health care event when test ordered　依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
@@ -754,7 +752,7 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report　臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
@@ -791,7 +789,7 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made　このバージョンが作成された日時</t>
+    <t>このバージョンが作成された日時</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダーに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
@@ -820,11 +818,11 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service　レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
@@ -857,7 +855,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>Primary result interpreter　結果の一次解釈者</t>
+    <t>結果の一次解釈者</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
@@ -877,16 +875,13 @@
 </t>
   </si>
   <si>
-    <t>Specimens this report is based on　レポートのもとになった検体</t>
-  </si>
-  <si>
-    <t>診断レポートの対象となる検体</t>
-  </si>
-  <si>
     <t>【JP-Core仕様】未使用
 ・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
   </si>
   <si>
+    <t>診断レポートの対象となる検体</t>
+  </si>
+  <si>
     <t>レポートの対象となる取集された検体についての情報をレポートできる必要がある。</t>
   </si>
   <si>
@@ -904,7 +899,7 @@
 </t>
   </si>
   <si>
-    <t>Observations　検査結果</t>
+    <t>【JP-Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>診断レポートの一部となるObservationリソース</t>
@@ -930,7 +925,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to full details of imaging associated with the diagnostic report　診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
@@ -954,7 +949,7 @@
 </t>
   </si>
   <si>
-    <t>Key images associated with this report　このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
@@ -1056,7 +1051,7 @@
 </t>
   </si>
   <si>
-    <t>Clinical conclusion (interpretation) of test results　検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
@@ -1078,7 +1073,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Codes for the clinical conclusion of test results　検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
@@ -1105,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t>Entire report as issued　発行されたレポート全体</t>
+    <t>発行されたレポート全体</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
@@ -1459,7 +1454,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="201.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="123.31640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2721,7 +2716,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -2737,7 +2732,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3621,7 +3616,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>246</v>
       </c>
@@ -3637,7 +3632,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3734,7 +3729,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>257</v>
       </c>
@@ -3750,7 +3745,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -3881,10 +3876,10 @@
         <v>266</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -3951,7 +3946,7 @@
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>212</v>
@@ -3962,11 +3957,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3985,19 +3980,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4046,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4064,10 +4059,10 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4075,7 +4070,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4098,16 +4093,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4157,7 +4152,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4178,7 +4173,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4186,11 +4181,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4209,19 +4204,19 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4270,7 +4265,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4288,10 +4283,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4299,7 +4294,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4325,10 +4320,10 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4379,7 +4374,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4395,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4408,7 +4403,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4437,7 +4432,7 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>137</v>
@@ -4490,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4511,7 +4506,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4519,11 +4514,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4545,10 +4540,10 @@
         <v>134</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4603,7 +4598,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4632,7 +4627,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4658,16 +4653,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -4716,7 +4711,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4737,7 +4732,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4745,7 +4740,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4768,16 +4763,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4827,7 +4822,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>88</v>
@@ -4848,7 +4843,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4856,11 +4851,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4882,16 +4877,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4935,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4958,10 +4953,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4969,7 +4964,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4995,13 +4990,13 @@
         <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5030,11 +5025,11 @@
         <v>185</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5051,7 +5046,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5069,10 +5064,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5103,19 +5098,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5164,7 +5159,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5182,10 +5177,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
